--- a/URS/DbLayouts/L5-管理性作業/NegAppr01.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegAppr01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C04DE0E-6B5C-47B5-9CA5-EEADBB855B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A53F7-1ED7-45A4-AE31-334FE43D2FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CustNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo= </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -317,26 +313,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ExportEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExportDateBetween</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ExportDate=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustNoExportDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustExporBetween</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DecimalD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -377,18 +357,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FindBatch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumCustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SumCustNoFinCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo = , AND CaseSeq = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -397,10 +365,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BringUpDateEq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>ExportDate DESC ,CustNo ASC</t>
   </si>
   <si>
@@ -416,15 +380,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FindTrans</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate = , AND TitaTlrNo = ,AND TitaTxtNo=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BatchTxtNo = , AND FinCode = , AND ApprDate=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoExportDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custExporBetween</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDateBetween</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringUpDateEq</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>findBatch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumCustNoFinCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTrans</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCustNoCaseSeq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = , AND CaseSeq = , AND ExportDate=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinCode ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1078,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1086,7 +1098,7 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1114,7 +1126,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1201,7 +1213,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E9" s="31">
         <v>8</v>
@@ -1400,7 +1412,7 @@
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="30" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1421,7 +1433,7 @@
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="30" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1429,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>39</v>
@@ -1442,7 +1454,7 @@
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="30" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1517,7 +1529,7 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="30" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1543,20 +1555,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E27" s="31">
         <v>10</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1654,11 +1666,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1682,97 +1694,108 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/URS/DbLayouts/L5-管理性作業/NegAppr01.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegAppr01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737A53F7-1ED7-45A4-AE31-334FE43D2FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18252" windowHeight="9708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -24,50 +23,50 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -89,62 +88,62 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最大債權撥付資料檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CaseSeq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CaseKindCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ApprAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AmtRatio</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ApprDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RemitBank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RemitAcct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DataSendUnit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ApprAcDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ReplyCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>會計日期</t>
   </si>
   <si>
     <t>交易序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>案件序號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>案件種類</t>
@@ -160,125 +159,121 @@
   </si>
   <si>
     <t>製檔日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>撥付日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提兌日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>匯款銀行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>匯款帳號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>資料傳送單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>撥付傳票日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>回應代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>TitaTlrNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxtNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FinCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>保貸戶須建立客戶主檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>經辦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ExportDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔
@@ -286,170 +281,182 @@
 2:調解
 3:更生
 4:清算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AccuApprAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>債權機構代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NegAppr01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate,TitaTlrNo,TitaTxtNo,FinCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ExportDate=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo= , AND ExportDate =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo= , AND ExportDate&gt;= , AND ExportDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ExportDate&gt;= , AND ExportDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BringUpDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BringUpDate=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Varchar2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BatchTx01存入 BatchTx04用找到指定的NegAppr01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BatchTxtNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Batch交易序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = , AND CaseSeq = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = , AND CaseSeq = , AND FinCode=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ExportDate DESC ,CustNo ASC</t>
   </si>
   <si>
     <t>L5707最大債權撥付產檔時寫入會計日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>L5708最大債權撥付出帳時寫入會計日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>L5709最大債權撥付回覆檔檢核時寫入會計日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate = , AND TitaTlrNo = ,AND TitaTxtNo=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BatchTxtNo = , AND FinCode = , AND ApprDate=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>custNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>custNoExportDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>custExporBetween</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>exportDateBetween</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>exportEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bringUpDateEq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>findBatch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>sumCustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>sumCustNoFinCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findTrans</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findByCustNoCaseSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = , AND CaseSeq = , AND ExportDate=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinCode ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinCode asc,CreateDate desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -537,6 +544,14 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -613,133 +628,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="5"/>
+    <cellStyle name="一般 2 3" xfId="4"/>
+    <cellStyle name="一般 2 4" xfId="6"/>
+    <cellStyle name="一般 2 5" xfId="2"/>
+    <cellStyle name="一般 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,23 +868,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -882,23 +903,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1074,11 +1078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1093,12 +1097,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1108,8 +1112,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1121,12 +1125,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1136,10 +1140,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1147,10 +1151,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1158,10 +1162,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1169,10 +1173,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1213,7 +1217,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="31">
         <v>8</v>
@@ -1228,7 +1232,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>45</v>
@@ -1243,13 +1247,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="31">
         <v>8</v>
@@ -1261,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>45</v>
@@ -1279,10 +1283,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>46</v>
@@ -1292,7 +1296,7 @@
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1331,7 +1335,7 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1359,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>35</v>
@@ -1399,20 +1403,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="31">
         <v>8</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1426,14 +1430,14 @@
         <v>38</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="31">
         <v>8</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1441,20 +1445,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="31">
         <v>8</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1522,14 +1526,14 @@
         <v>43</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="32">
         <v>8</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1555,20 +1559,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="31">
         <v>10</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1576,13 +1580,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="31"/>
@@ -1592,13 +1596,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>62</v>
       </c>
       <c r="E29" s="28">
         <v>6</v>
@@ -1610,13 +1614,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>64</v>
-      </c>
       <c r="D30" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="33"/>
@@ -1626,13 +1630,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>66</v>
-      </c>
       <c r="D31" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="28">
         <v>6</v>
@@ -1658,26 +1662,26 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1694,112 +1698,112 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="34" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
